--- a/src/modules/personas.xlsx
+++ b/src/modules/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,6 +598,43 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>abigail Durand palacios</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12546</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25072005@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>938755899</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>25/07/2005</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
